--- a/Assgnment4/Details_login.xlsx
+++ b/Assgnment4/Details_login.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malpraneeth\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malpraneeth\IdeaProjects\HU_Selenium_TRACK\Assgnment4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D12F8D6-FAEE-4325-B3EC-32EDD70A7B79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B756B59D-5E87-43D7-A734-4EE4BF646FB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{CCA089CA-D401-49C8-BA18-C36C2E69F51F}"/>
   </bookViews>
@@ -406,51 +406,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EB7F15-BC38-4101-8E35-E8CCB0883E5D}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.81640625" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>
